--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H2">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.85999828235258</v>
+        <v>3.211751333333333</v>
       </c>
       <c r="N2">
-        <v>1.85999828235258</v>
+        <v>9.635254</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9274105493513785</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9274105493513782</v>
       </c>
       <c r="Q2">
-        <v>10.16724918146929</v>
+        <v>18.15335703964022</v>
       </c>
       <c r="R2">
-        <v>10.16724918146929</v>
+        <v>163.380213356762</v>
       </c>
       <c r="S2">
-        <v>0.181666329901699</v>
+        <v>0.1725288801025979</v>
       </c>
       <c r="T2">
-        <v>0.181666329901699</v>
+        <v>0.1725288801025978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.3597668135241</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H3">
-        <v>16.3597668135241</v>
+        <v>16.956503</v>
       </c>
       <c r="I3">
-        <v>0.5437016202973917</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J3">
-        <v>0.5437016202973917</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.85999828235258</v>
+        <v>0.2513873333333334</v>
       </c>
       <c r="N3">
-        <v>1.85999828235258</v>
+        <v>0.754162</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.07258945064862164</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.07258945064862163</v>
       </c>
       <c r="Q3">
-        <v>30.42913817284357</v>
+        <v>1.420883357276223</v>
       </c>
       <c r="R3">
-        <v>30.42913817284357</v>
+        <v>12.787950215486</v>
       </c>
       <c r="S3">
-        <v>0.5437016202973917</v>
+        <v>0.01350402649228919</v>
       </c>
       <c r="T3">
-        <v>0.5437016202973917</v>
+        <v>0.01350402649228919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.263569808391409</v>
+        <v>16.407289</v>
       </c>
       <c r="H4">
-        <v>8.263569808391409</v>
+        <v>49.221867</v>
       </c>
       <c r="I4">
-        <v>0.2746320498009094</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J4">
-        <v>0.2746320498009094</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.85999828235258</v>
+        <v>3.211751333333333</v>
       </c>
       <c r="N4">
-        <v>1.85999828235258</v>
+        <v>9.635254</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9274105493513785</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9274105493513782</v>
       </c>
       <c r="Q4">
-        <v>15.37022564970866</v>
+        <v>52.69613232213534</v>
       </c>
       <c r="R4">
-        <v>15.37022564970866</v>
+        <v>474.265190899218</v>
       </c>
       <c r="S4">
-        <v>0.2746320498009094</v>
+        <v>0.5008222267332492</v>
       </c>
       <c r="T4">
-        <v>0.2746320498009094</v>
+        <v>0.5008222267332491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>16.407289</v>
+      </c>
+      <c r="H5">
+        <v>49.221867</v>
+      </c>
+      <c r="I5">
+        <v>0.5400221369958743</v>
+      </c>
+      <c r="J5">
+        <v>0.5400221369958743</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2513873333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.754162</v>
+      </c>
+      <c r="O5">
+        <v>0.07258945064862164</v>
+      </c>
+      <c r="P5">
+        <v>0.07258945064862163</v>
+      </c>
+      <c r="Q5">
+        <v>4.124584628939334</v>
+      </c>
+      <c r="R5">
+        <v>37.121261660454</v>
+      </c>
+      <c r="S5">
+        <v>0.03919991026262521</v>
+      </c>
+      <c r="T5">
+        <v>0.0391999102626252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.323166333333333</v>
+      </c>
+      <c r="H6">
+        <v>24.969499</v>
+      </c>
+      <c r="I6">
+        <v>0.2739449564092387</v>
+      </c>
+      <c r="J6">
+        <v>0.2739449564092387</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.211751333333333</v>
+      </c>
+      <c r="N6">
+        <v>9.635254</v>
+      </c>
+      <c r="O6">
+        <v>0.9274105493513785</v>
+      </c>
+      <c r="P6">
+        <v>0.9274105493513782</v>
+      </c>
+      <c r="Q6">
+        <v>26.73194056863844</v>
+      </c>
+      <c r="R6">
+        <v>240.587465117746</v>
+      </c>
+      <c r="S6">
+        <v>0.2540594425155315</v>
+      </c>
+      <c r="T6">
+        <v>0.2540594425155314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.323166333333333</v>
+      </c>
+      <c r="H7">
+        <v>24.969499</v>
+      </c>
+      <c r="I7">
+        <v>0.2739449564092387</v>
+      </c>
+      <c r="J7">
+        <v>0.2739449564092387</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2513873333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.754162</v>
+      </c>
+      <c r="O7">
+        <v>0.07258945064862164</v>
+      </c>
+      <c r="P7">
+        <v>0.07258945064862163</v>
+      </c>
+      <c r="Q7">
+        <v>2.092338589426444</v>
+      </c>
+      <c r="R7">
+        <v>18.831047304838</v>
+      </c>
+      <c r="S7">
+        <v>0.01988551389370724</v>
+      </c>
+      <c r="T7">
+        <v>0.01988551389370724</v>
       </c>
     </row>
   </sheetData>
